--- a/Mediciones/labo_tp1_ej4.xlsx
+++ b/Mediciones/labo_tp1_ej4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,10 +213,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -281,16 +282,46 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>3.0000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>4.9999999999999998E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$30</c:f>
+              <c:f>Sheet1!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -356,6 +387,39 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-12.610252473603342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.247387259711187E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.5156462850827702E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.47904262251056545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5245082829641079</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.4072235179505848</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.2506949680074886</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-16.159263559971464</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-29.976810088257974</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-35.353716334109578</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,6 +547,27 @@
                       <c:pt idx="21">
                         <c:v>25</c:v>
                       </c:pt>
+                      <c:pt idx="22" formatCode="0.00E+00">
+                        <c:v>5.0000000000000002E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="23" formatCode="0.00E+00">
+                        <c:v>3.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="24" formatCode="0.00E+00">
+                        <c:v>2.0000000000000002E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="25" formatCode="0.00E+00">
+                        <c:v>1.0000000000000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="26" formatCode="0.00E+00">
+                        <c:v>5.0000000000000004E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="27" formatCode="0.00E+00">
+                        <c:v>1.9999999999999999E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="28" formatCode="0.00E+00">
+                        <c:v>3.0000000000000001E-6</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
@@ -564,6 +649,27 @@
                       <c:pt idx="21">
                         <c:v>20.5</c:v>
                       </c:pt>
+                      <c:pt idx="22">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>20.5</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -581,7 +687,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$1</c15:sqref>
@@ -620,7 +726,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$19</c15:sqref>
@@ -689,7 +795,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$2:$C$19</c15:sqref>
@@ -757,7 +863,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2601-4D1C-BCCE-11434B107780}"/>
                   </c:ext>
@@ -1128,6 +1234,27 @@
                 <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>1.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1186,19 +1313,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-0.47904262251056545</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-11.915010348419102</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-1.5245082829641079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-5.7289599158196811</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-0.12804983218261071</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -2906,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +3081,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D30" si="0">20*LOG(C3/B3)</f>
+        <f t="shared" ref="D3:D34" si="0">20*LOG(C3/B3)</f>
         <v>-4.247387259711187E-2</v>
       </c>
     </row>
@@ -3256,6 +3383,165 @@
       <c r="D23">
         <f t="shared" si="0"/>
         <v>-12.610252473603342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B24">
+        <v>20.5</v>
+      </c>
+      <c r="C24">
+        <v>20.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B25">
+        <v>20.5</v>
+      </c>
+      <c r="C25">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-4.247387259711187E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B26">
+        <v>20.5</v>
+      </c>
+      <c r="C26">
+        <v>20.3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-8.5156462850827702E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B27">
+        <v>20.5</v>
+      </c>
+      <c r="C27">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.47904262251056545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="B28">
+        <v>20.5</v>
+      </c>
+      <c r="C28">
+        <v>17.2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-1.5245082829641079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="B29">
+        <v>20.5</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-5.4072235179505848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="B30">
+        <v>20.5</v>
+      </c>
+      <c r="C30">
+        <v>14.1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-3.2506949680074886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="B31">
+        <v>20.5</v>
+      </c>
+      <c r="C31">
+        <v>3.19</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-16.159263559971464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B32">
+        <v>20.5</v>
+      </c>
+      <c r="C32">
+        <v>0.65</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-29.976810088257974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B33">
+        <v>20.5</v>
+      </c>
+      <c r="C33">
+        <v>0.35</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-35.353716334109578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>20.5</v>
+      </c>
+      <c r="D34" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -3268,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,135 +3785,177 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1E-4</v>
+      </c>
       <c r="B16">
         <v>20.5</v>
       </c>
-      <c r="D16" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>20.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="B17">
         <v>20.5</v>
       </c>
-      <c r="D17" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="C17">
+        <v>20.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="B18">
         <v>20.5</v>
       </c>
-      <c r="D18" t="e">
+      <c r="C18">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.47904262251056545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B19">
+        <v>20.5</v>
+      </c>
+      <c r="C19">
+        <v>5.2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-11.915010348419102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="B20">
+        <v>20.5</v>
+      </c>
+      <c r="C20">
+        <v>17.2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-1.5245082829641079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="B21">
+        <v>20.5</v>
+      </c>
+      <c r="C21">
+        <v>10.6</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-5.7289599158196811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="B22">
+        <v>20.5</v>
+      </c>
+      <c r="C22">
+        <v>20.2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.12804983218261071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20.5</v>
+      </c>
+      <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>20.5</v>
-      </c>
-      <c r="D19" t="e">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>20.5</v>
+      </c>
+      <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>20.5</v>
-      </c>
-      <c r="D20" t="e">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>20.5</v>
+      </c>
+      <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>20.5</v>
-      </c>
-      <c r="D21" t="e">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>20.5</v>
+      </c>
+      <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>20.5</v>
-      </c>
-      <c r="D22" t="e">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>20.5</v>
+      </c>
+      <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>20.5</v>
-      </c>
-      <c r="D23" t="e">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>20.5</v>
+      </c>
+      <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>20.5</v>
-      </c>
-      <c r="D24" t="e">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>20.5</v>
+      </c>
+      <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>20.5</v>
-      </c>
-      <c r="D25" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>20.5</v>
-      </c>
-      <c r="D26" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>20.5</v>
-      </c>
-      <c r="D27" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>20.5</v>
-      </c>
-      <c r="D28" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>20.5</v>
-      </c>
-      <c r="D29" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>20.5</v>
       </c>
